--- a/biology/Zoologie/Fruits_de_mer/Fruits_de_mer.xlsx
+++ b/biology/Zoologie/Fruits_de_mer/Fruits_de_mer.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Les fruits de mer sont un nom donné aux animaux cuticulates marins comestibles. Dans l'acception la plus usuelle, il s'agit d'une grande variété d'organismes marins, à l'exception des poissons et des mammifères.
@@ -514,17 +526,14 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Histoire de la consommation de fruits de mer
-La consommation de fruits de mer remonte au moins à la période chasseurs-cueilleurs de la Préhistoire, des origines de l'histoire de l'art culinaire. La consommation la plus ancienne connue à ce jour par des Homo sapiens sont des coquillages mangés il y a 164 000 ans, et trouvés en Afrique du Sud. En 2011, des restes de coquillages ont été par ailleurs retrouvés, indiquant que l'homme de Néanderthal mangeait également des fruits de mer il y a 150 000 ans[1],[2].
-Aspects sanitaires
-Les fruits de mer, quand ils sont sains, sont réputés bons pour la santé en apportant divers oligo-éléments, dont l'iode, le magnésium, la vitamine B12… Néanmoins, tout comme la viande, ils doivent être consommés frais et sains (non avariés), faute de quoi ils peuvent causer des intoxications sévères. « En 2021, 8,3 % des toxi-infections alimentaires collectives (TIAC) déclarées étaient dues à la consommation de coquillages. Les virus entériques ont été suspectés d’être responsables de 75 % de celles-ci »[3] Plusieurs allergies courantes concernent certains fruits de mer, en particulier ceux qui sont filtreurs (et biointégrateurs, coquillages en particulier) et peuvent avoir accumulé, outre des microbes et parasites, des métaux lourds ou d'autres toxiques invisibles à l'œil nu (bioconcentration). Les animaux filtreurs (bivalves tels que moules et huîtres peuvent aussi bioaccumuler divers métaux lourds, métalloïdes et autres produits toxiques en se nourrissant) ; pour cette raison, les bivalves sont d'ailleurs parfois utilisés comme bioindicateurs et « organismes sentinelles » pour contrôler la qualité de l'eau et les pollutions marines[4] et/ou esturariennes[5]. Les bivalves, particulièrement, peuvent aussi être contaminés par des bactéries, généralement d'origines fécale (comme pour les virus pathogènes) ; Escherichia coli souvent et divers entérocoques intestinaux)[6] ; pour identifier l'origine de ces pathogènes (lisier de porcs, égouts et excréments humains, etc.) on fait appel à un groupe de méthodes (incluant des marqueurs ADN) regroupées sous le terme de Microbial Source Tracking (MST ou traçage des sources microbiennes, TSM)[6].
-Mois en « R »
-En France, la coutume réserve la consommation des coquillages en général, et des huîtres en particulier aux seuls mois en « R », c'est-à-dire de septembre à avril.
-Cette tradition provient d'un édit royal de 1759, promulgué à la suite de nombreuses intoxications mortelles à la cour, interdisant la pêche, le colportage et la vente des huîtres du 1er avril au 31 octobre, à une époque où la conservation par le froid n'existait pas et où les transports étaient lents. Cet édit évitait également les prélèvements sur les bancs d’huîtres mères pendant la période de reproduction et préservait la ressource[7]. On peut
-de nos jours consommer les huîtres toute l’année, mais pendant les mois chauds, elles sont
-grasses ou « laiteuses » du fait de la présence de gamètes[8],[9]. 
-Cette expression demeure cependant d'actualité pour certaines espèces comme l'oursin violet, appuyée par les réglementations préféctorales, afin de préserver la ressource au moment de la reproduction. La récolte des oursins pour la consommation est donc strictement interdite du 1er mai au 31 août en France métropolitaine[10].
-Interdits alimentaires</t>
+          <t>Histoire de la consommation de fruits de mer</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La consommation de fruits de mer remonte au moins à la période chasseurs-cueilleurs de la Préhistoire, des origines de l'histoire de l'art culinaire. La consommation la plus ancienne connue à ce jour par des Homo sapiens sont des coquillages mangés il y a 164 000 ans, et trouvés en Afrique du Sud. En 2011, des restes de coquillages ont été par ailleurs retrouvés, indiquant que l'homme de Néanderthal mangeait également des fruits de mer il y a 150 000 ans,.
+</t>
         </is>
       </c>
     </row>
@@ -549,35 +558,144 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Consommation de fruits de mer</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Aspects sanitaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les fruits de mer, quand ils sont sains, sont réputés bons pour la santé en apportant divers oligo-éléments, dont l'iode, le magnésium, la vitamine B12… Néanmoins, tout comme la viande, ils doivent être consommés frais et sains (non avariés), faute de quoi ils peuvent causer des intoxications sévères. « En 2021, 8,3 % des toxi-infections alimentaires collectives (TIAC) déclarées étaient dues à la consommation de coquillages. Les virus entériques ont été suspectés d’être responsables de 75 % de celles-ci » Plusieurs allergies courantes concernent certains fruits de mer, en particulier ceux qui sont filtreurs (et biointégrateurs, coquillages en particulier) et peuvent avoir accumulé, outre des microbes et parasites, des métaux lourds ou d'autres toxiques invisibles à l'œil nu (bioconcentration). Les animaux filtreurs (bivalves tels que moules et huîtres peuvent aussi bioaccumuler divers métaux lourds, métalloïdes et autres produits toxiques en se nourrissant) ; pour cette raison, les bivalves sont d'ailleurs parfois utilisés comme bioindicateurs et « organismes sentinelles » pour contrôler la qualité de l'eau et les pollutions marines et/ou esturariennes. Les bivalves, particulièrement, peuvent aussi être contaminés par des bactéries, généralement d'origines fécale (comme pour les virus pathogènes) ; Escherichia coli souvent et divers entérocoques intestinaux) ; pour identifier l'origine de ces pathogènes (lisier de porcs, égouts et excréments humains, etc.) on fait appel à un groupe de méthodes (incluant des marqueurs ADN) regroupées sous le terme de Microbial Source Tracking (MST ou traçage des sources microbiennes, TSM).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Fruits_de_mer</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fruits_de_mer</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Consommation de fruits de mer</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Aspects sanitaires</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Mois en « R »</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En France, la coutume réserve la consommation des coquillages en général, et des huîtres en particulier aux seuls mois en « R », c'est-à-dire de septembre à avril.
+Cette tradition provient d'un édit royal de 1759, promulgué à la suite de nombreuses intoxications mortelles à la cour, interdisant la pêche, le colportage et la vente des huîtres du 1er avril au 31 octobre, à une époque où la conservation par le froid n'existait pas et où les transports étaient lents. Cet édit évitait également les prélèvements sur les bancs d’huîtres mères pendant la période de reproduction et préservait la ressource. On peut
+de nos jours consommer les huîtres toute l’année, mais pendant les mois chauds, elles sont
+grasses ou « laiteuses » du fait de la présence de gamètes,. 
+Cette expression demeure cependant d'actualité pour certaines espèces comme l'oursin violet, appuyée par les réglementations préféctorales, afin de préserver la ressource au moment de la reproduction. La récolte des oursins pour la consommation est donc strictement interdite du 1er mai au 31 août en France métropolitaine.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Fruits_de_mer</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fruits_de_mer</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Liste de fruits de mer</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Les principaux groupes d'invertébrés consommés comme fruit de mer sont :
 les bivalves ;
 les céphalopodes ;
 les gastéropodes ;
 les crustacés ;
-les échinodermes.
-Bivalves
-Arcoïdes
-Myoïdes
-Mytiloïdes
-Ostréoïdes (huîtres)
-Pectinoïdes
-Ptérioïdes
-Vénéroïdes
-Cardioidea
+les échinodermes.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Fruits_de_mer</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fruits_de_mer</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Liste de fruits de mer</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Bivalves</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Vénéroïdes</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Cardioidea
 Mactroidea
 Tellinoidea
 Veneroidea
-Autres
-Divers bivalves
-Céphalopodes
-Escargots de mer, mollusques de la classe des gastéropodes
-Crustacés, invertébrés à exosquelette (carapace) ou à pédoncule
-Échinodermes
 Autres</t>
         </is>
       </c>
